--- a/Simple ILA/ILA Table.xlsx
+++ b/Simple ILA/ILA Table.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klp4/Dropbox/Papers/5 in progress/Policy Uncertainty/Python Code/Simple ILA/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="465" windowWidth="10185" windowHeight="15000"/>
+    <workbookView xWindow="14160" yWindow="460" windowWidth="10180" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="GSSA" sheetId="5" r:id="rId3"/>
     <sheet name="VFI" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -87,11 +92,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,13 +142,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,7 +457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -461,12 +468,12 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -477,84 +484,84 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <f>LIN!C3</f>
-        <v>2.8737199999999999E-4</v>
+        <v>2.8757700000000001E-4</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <f>LIN!D3</f>
-        <v>3.84381E-3</v>
+        <v>3.8451800000000001E-3</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <f>LIN!E3</f>
-        <v>4.4761099999999999E-4</v>
+        <v>4.4761300000000003E-4</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <f>LIN!F3</f>
         <v>4.7131400000000002E-3</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>1.3263399999999999E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0811699999999999E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="B10" s="3">
-        <v>1.3263399999999999E-4</v>
+        <v>2.4448999999999999E-4</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -562,7 +569,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -572,12 +579,12 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4">
-        <v>103.40719125140632</v>
+        <v>106.7579108265962</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -593,12 +600,12 @@
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D3" sqref="D3:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6">
       <c r="C1" t="s">
         <v>3</v>
       </c>
@@ -606,7 +613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -620,157 +627,157 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>2.8737199999999999E-4</v>
+        <v>2.8757700000000001E-4</v>
       </c>
       <c r="D3" s="2">
-        <v>3.84381E-3</v>
+        <v>3.8451800000000001E-3</v>
       </c>
       <c r="E3" s="2">
-        <v>4.4761099999999999E-4</v>
+        <v>4.4761300000000003E-4</v>
       </c>
       <c r="F3" s="2">
         <v>4.7131400000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="2">
-        <v>3.04507E-3</v>
+        <v>3.0521099999999998E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>8.14883E-2</v>
+        <v>8.1582399999999999E-2</v>
       </c>
       <c r="E4" s="2">
-        <v>4.2950899999999997E-3</v>
+        <v>4.2957000000000004E-3</v>
       </c>
       <c r="F4" s="2">
-        <v>5.3831299999999999E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+        <v>5.38427E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>1.9806400000000001E-3</v>
+        <v>1.98058E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>3.41102E-2</v>
+        <v>3.41097E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>2.2752900000000001E-3</v>
+        <v>2.27561E-3</v>
       </c>
       <c r="F5" s="2">
-        <v>2.8516499999999998E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+        <v>2.8522500000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2">
-        <v>1.9045399999999999E-3</v>
+        <v>1.9052400000000001E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>2.8094600000000001E-2</v>
+        <v>2.8099800000000001E-2</v>
       </c>
       <c r="E6" s="2">
-        <v>7.8891900000000001E-4</v>
+        <v>7.8902599999999996E-4</v>
       </c>
       <c r="F6" s="2">
-        <v>9.8874300000000004E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>9.8894799999999991E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2">
-        <v>8.1578100000000001E-2</v>
+        <v>8.1776799999999997E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>1.6318999999999999</v>
+        <v>1.6338900000000001</v>
       </c>
       <c r="E7" s="2">
-        <v>0.126441</v>
+        <v>0.12645899999999999</v>
       </c>
       <c r="F7" s="2">
-        <v>0.15847</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.15850400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2">
-        <v>4.2763200000000001E-2</v>
+        <v>4.2753399999999997E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>0.80698899999999996</v>
+        <v>0.80689699999999998</v>
       </c>
       <c r="E8" s="2">
-        <v>7.6445600000000002E-2</v>
+        <v>7.64566E-2</v>
       </c>
       <c r="F8" s="2">
-        <v>9.5813400000000007E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+        <v>9.5833799999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>1.5270500000000001E-3</v>
+        <v>1.5278100000000001E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.4099200000000003E-2</v>
+        <v>3.4107699999999998E-2</v>
       </c>
       <c r="E9" s="2">
-        <v>3.8254800000000002E-4</v>
+        <v>3.8261000000000002E-4</v>
       </c>
       <c r="F9" s="2">
-        <v>4.8167899999999999E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+        <v>4.8178799999999998E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>2.1252799999999999E-2</v>
+        <v>2.1246500000000001E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>0.23374</v>
+        <v>0.233706</v>
       </c>
       <c r="E10" s="2">
-        <v>1.02475E-2</v>
+        <v>1.0254599999999999E-2</v>
       </c>
       <c r="F10" s="2">
-        <v>1.29573E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1.29646E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2">
-        <v>1.37413E-2</v>
+        <v>1.37558E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>0.12768699999999999</v>
+        <v>0.12775400000000001</v>
       </c>
       <c r="E11" s="2">
-        <v>2.9380999999999999E-3</v>
+        <v>2.9399000000000001E-3</v>
       </c>
       <c r="F11" s="2">
-        <v>3.74706E-3</v>
+        <v>3.7491600000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -787,9 +794,9 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -797,7 +804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -811,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -820,12 +827,12 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -834,7 +841,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -843,7 +850,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -852,7 +859,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -861,7 +868,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -870,7 +877,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -879,7 +886,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -901,9 +908,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -911,7 +918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -925,7 +932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -934,12 +941,12 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -948,7 +955,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -957,7 +964,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -966,7 +973,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -975,7 +982,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -984,7 +991,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -993,7 +1000,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>18</v>
       </c>

--- a/Simple ILA/ILA Table.xlsx
+++ b/Simple ILA/ILA Table.xlsx
@@ -9,15 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="460" windowWidth="10180" windowHeight="15000"/>
+    <workbookView xWindow="2540" yWindow="460" windowWidth="22960" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
     <sheet name="LIN" sheetId="3" r:id="rId2"/>
     <sheet name="GSSA" sheetId="5" r:id="rId3"/>
-    <sheet name="VFI" sheetId="7" r:id="rId4"/>
+    <sheet name="VFI11" sheetId="7" r:id="rId4"/>
+    <sheet name="VFI21" sheetId="8" r:id="rId5"/>
+    <sheet name="VFI31" sheetId="10" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="LIN">Table!$B$2:$B$14</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
   <si>
     <t>LIN</t>
   </si>
@@ -35,9 +41,6 @@
     <t>GSSA</t>
   </si>
   <si>
-    <t>VFI</t>
-  </si>
-  <si>
     <t>TZFE</t>
   </si>
   <si>
@@ -87,15 +90,35 @@
   </si>
   <si>
     <t>ell</t>
+  </si>
+  <si>
+    <t>VFI11</t>
+  </si>
+  <si>
+    <t>VFI31</t>
+  </si>
+  <si>
+    <t>VFI12</t>
+  </si>
+  <si>
+    <t>RMSE Lab</t>
+  </si>
+  <si>
+    <t>RMSE Cap</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="174" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -138,11 +161,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -150,8 +174,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -465,15 +494,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="6" width="10" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -481,113 +517,433 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
       </c>
       <c r="B3" s="6">
         <f>LIN!C3</f>
         <v>2.8757700000000001E-4</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
+        <f>'VFI11'!B3</f>
+        <v>3.1344100000000002E-4</v>
+      </c>
+      <c r="E3" s="7">
+        <f>'VFI21'!B3</f>
+        <v>3.0551599999999998E-4</v>
+      </c>
+      <c r="F3" s="7">
+        <f>'VFI31'!B3</f>
+        <v>2.99072E-4</v>
+      </c>
+      <c r="H3">
+        <f>B3/LIN</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <f>C3/LIN</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <f>D3/LIN</f>
+        <v>1.0899376514811685</v>
+      </c>
+      <c r="K3" s="4">
+        <f>E3/LIN</f>
+        <v>1.0623798147974279</v>
+      </c>
+      <c r="L3" s="4">
+        <f>F3/LIN</f>
+        <v>1.0399719031772359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6">
         <f>LIN!D3</f>
         <v>3.8451800000000001E-3</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
+        <f>'VFI11'!C3</f>
+        <v>4.0143699999999997E-3</v>
+      </c>
+      <c r="E4" s="7">
+        <f>'VFI21'!C3</f>
+        <v>3.9633000000000003E-3</v>
+      </c>
+      <c r="F4" s="7">
+        <f>'VFI31'!C3</f>
+        <v>3.9212800000000001E-3</v>
+      </c>
+      <c r="H4">
+        <f>B4/LIN</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <f>C4/LIN</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f>D4/LIN</f>
+        <v>1.044000540936965</v>
+      </c>
+      <c r="K4" s="4">
+        <f>E4/LIN</f>
+        <v>1.030718978045241</v>
+      </c>
+      <c r="L4" s="4">
+        <f>F4/LIN</f>
+        <v>1.0197910110840065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="6">
         <f>LIN!E3</f>
         <v>4.4761300000000003E-4</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
+        <f>'VFI11'!D3</f>
+        <v>7.3289700000000004E-4</v>
+      </c>
+      <c r="E6" s="7">
+        <f>'VFI21'!D3</f>
+        <v>7.5386599999999995E-4</v>
+      </c>
+      <c r="F6" s="7">
+        <f>'VFI31'!D3</f>
+        <v>7.6187599999999998E-4</v>
+      </c>
+      <c r="H6">
+        <f>B6/LIN</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <f>C6/LIN</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f>D6/LIN</f>
+        <v>1.6373452066852392</v>
+      </c>
+      <c r="K6" s="4">
+        <f>E6/LIN</f>
+        <v>1.6841914779061375</v>
+      </c>
+      <c r="L6" s="4">
+        <f>F6/LIN</f>
+        <v>1.7020864005290284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="6">
         <f>LIN!F3</f>
         <v>4.7131400000000002E-3</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
+        <f>'VFI11'!E3</f>
+        <v>4.7283799999999999E-3</v>
+      </c>
+      <c r="E7" s="7">
+        <f>'VFI21'!E3</f>
+        <v>4.7304799999999996E-3</v>
+      </c>
+      <c r="F7" s="7">
+        <f>'VFI31'!E3</f>
+        <v>4.7313299999999997E-3</v>
+      </c>
+      <c r="H7">
+        <f>B7/LIN</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <f>C7/LIN</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f>D7/LIN</f>
+        <v>1.0032335131143992</v>
+      </c>
+      <c r="K7" s="4">
+        <f>E7/LIN</f>
+        <v>1.0036790759451235</v>
+      </c>
+      <c r="L7" s="4">
+        <f>F7/LIN</f>
+        <v>1.0038594228051787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3">
         <v>2.0811699999999999E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="3">
+        <v>2.6894299999999999E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5447899999999999E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2.49219E-2</v>
+      </c>
+      <c r="H9">
+        <f>B9/LIN</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <f>C9/LIN</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <f>D9/LIN</f>
+        <v>1292.2682913937833</v>
+      </c>
+      <c r="K9" s="9">
+        <f>E9/LIN</f>
+        <v>1222.7689232499026</v>
+      </c>
+      <c r="L9" s="9">
+        <f>F9/LIN</f>
+        <v>1197.4946784741276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
       <c r="B10" s="3">
         <v>2.4448999999999999E-4</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="3">
+        <v>3.6264499999999998E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.8363099999999997E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3.9458699999999999E-2</v>
+      </c>
+      <c r="H10">
+        <f>B10/LIN</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <f>C10/LIN</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <f>D10/LIN</f>
+        <v>148.32712994396499</v>
+      </c>
+      <c r="K10" s="9">
+        <f>E10/LIN</f>
+        <v>156.91071209456419</v>
+      </c>
+      <c r="L10" s="9">
+        <f>F10/LIN</f>
+        <v>161.39187696838317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="I11" s="4"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="5">
         <v>1.3092602976861174E-4</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="C12" s="5"/>
+      <c r="D12" s="4">
+        <v>7.7870982213720827</v>
+      </c>
+      <c r="E12" s="4">
+        <v>132.56461969226794</v>
+      </c>
+      <c r="F12" s="4">
+        <v>7072.0575967143259</v>
+      </c>
+      <c r="H12">
+        <f>B12/LIN</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <f>C12/LIN</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
+        <f>D12/LIN</f>
+        <v>59477.082098451938</v>
+      </c>
+      <c r="K12" s="10">
+        <f>E12/LIN</f>
+        <v>1012515.386944461</v>
+      </c>
+      <c r="L12" s="10">
+        <f>F12/LIN</f>
+        <v>54015672.889592074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4">
         <v>106.7579108265962</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4">
+        <v>50.749120951849228</v>
+      </c>
+      <c r="E13" s="4">
+        <v>75.994291812789086</v>
+      </c>
+      <c r="F13" s="4">
+        <v>170.66020271620459</v>
+      </c>
+      <c r="H13">
+        <f>B13/LIN</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <f>C13/LIN</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f>D13/LIN</f>
+        <v>0.4753663738725607</v>
+      </c>
+      <c r="K13" s="4">
+        <f>E13/LIN</f>
+        <v>0.71183756992233038</v>
+      </c>
+      <c r="L13" s="4">
+        <f>F13/LIN</f>
+        <v>1.598571959631198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4">
+        <f>B13+B12</f>
+        <v>106.75804175262597</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:F14" si="0">C13+C12</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>58.536219173221312</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>208.55891150505704</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>7242.7177994305302</v>
+      </c>
+      <c r="H14">
+        <f>B14/LIN</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <f>C14/LIN</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f>D14/LIN</f>
+        <v>0.54830735195441582</v>
+      </c>
+      <c r="K14" s="4">
+        <f>E14/LIN</f>
+        <v>1.9535662895383432</v>
+      </c>
+      <c r="L14" s="4">
+        <f>F14/LIN</f>
+        <v>67.842362790926501</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -607,29 +963,29 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>2.8757700000000001E-4</v>
@@ -646,7 +1002,7 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>3.0521099999999998E-3</v>
@@ -663,7 +1019,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
         <v>1.98058E-3</v>
@@ -680,7 +1036,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
         <v>1.9052400000000001E-3</v>
@@ -697,7 +1053,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2">
         <v>8.1776799999999997E-2</v>
@@ -714,7 +1070,7 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
         <v>4.2753399999999997E-2</v>
@@ -731,7 +1087,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
         <v>1.5278100000000001E-3</v>
@@ -748,7 +1104,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
         <v>2.1246500000000001E-2</v>
@@ -765,7 +1121,7 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
         <v>1.37558E-2</v>
@@ -798,29 +1154,29 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -829,12 +1185,12 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -843,7 +1199,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -852,7 +1208,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -861,7 +1217,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -870,7 +1226,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -879,7 +1235,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -888,7 +1244,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -905,109 +1261,573 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.1344100000000002E-4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.0143699999999997E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.3289700000000004E-4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.7283799999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2.6683999999999999E-2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.24122499999999999</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2.1091599999999999E-2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2.9360600000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.3625599999999997E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.6126500000000003E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.1951599999999998E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3.4993200000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.95867E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.8491099999999998E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.47335E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.2058E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.24403900000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.8225199999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.121988</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.194462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.16350300000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.57796</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.2790499999999994E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.11647399999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8.18638E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7.8952099999999997E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6.76702E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>8.7683800000000006E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.5637500000000001E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.25672200000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.3171200000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10688.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6.6474800000000001E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.28084100000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.326764</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.47105000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.0551599999999998E-4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.9633000000000003E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.5386599999999995E-4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.7304799999999996E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8">
+        <v>9.3761899999999995E-3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.14299100000000001</v>
+      </c>
+      <c r="D4" s="8">
+        <v>9.4212400000000009E-3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.26316E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.21609E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.34656E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.4018600000000003E-4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7.3550199999999997E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.6807899999999999E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.6392800000000001E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.7001500000000001E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.1555599999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8.1823599999999996E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.63436</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.8904600000000001E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4.0872899999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8.3827399999999996E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.1298600000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.132E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.4550300000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.1919499999999998E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.6497100000000001E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6.9669499999999995E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9.0357800000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.52573E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.25481100000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.3495299999999997</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1355.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7.4901499999999996E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.29811100000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.430863</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8.5130199999999991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.99072E-4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.9212800000000001E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.6187599999999998E-4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.7313299999999997E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3.7175200000000002E-3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>9.0037400000000004E-2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5.2223699999999996E-3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>7.2276900000000002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.4699800000000001E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.80915E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.6495400000000004E-4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8.74613E-4</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.8100600000000001E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.7388900000000001E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.4223899999999999E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.8018999999999999E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5.901E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.38794</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.6952499999999999E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4.8603500000000001E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5.7705600000000003E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.93743699999999996</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.2132300000000001E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.9113E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.9402E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.7315799999999998E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7.0864700000000003E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9.1983099999999998E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.4767299999999999E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.25232700000000002</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.1941199999999998</v>
+      </c>
+      <c r="E10" s="2">
+        <v>691.37199999999996</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7.85246E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.30523600000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.50524999999999998</v>
+      </c>
+      <c r="E11" s="2">
+        <v>14.233599999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
